--- a/trunk/AM24/report and docs/AM24TestResults.xlsx
+++ b/trunk/AM24/report and docs/AM24TestResults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095"/>
@@ -11,7 +11,7 @@
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -99,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,21 +138,39 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -167,6 +185,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Ark1'!$B$1:$W$1</c:f>
@@ -317,31 +336,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="39564416"/>
-        <c:axId val="39566336"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49218688"/>
+        <c:axId val="49220224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39564416"/>
+        <c:axId val="49218688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39566336"/>
+        <c:crossAx val="49220224"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39566336"/>
+        <c:axId val="49220224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39564416"/>
+        <c:crossAx val="49218688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -349,8 +385,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -362,16 +401,29 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -386,6 +438,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Ark1'!$B$1:$W$1</c:f>
@@ -536,32 +589,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101528320"/>
-        <c:axId val="127857792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49248896"/>
+        <c:axId val="49254784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101528320"/>
+        <c:axId val="49248896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127857792"/>
+        <c:crossAx val="49254784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127857792"/>
+        <c:axId val="49254784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101528320"/>
+        <c:crossAx val="49248896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,8 +638,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -582,16 +654,29 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -606,6 +691,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Ark1'!$B$1:$W$1</c:f>
@@ -756,32 +842,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127182336"/>
-        <c:axId val="127183872"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49279360"/>
+        <c:axId val="49280896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127182336"/>
+        <c:axId val="49279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127183872"/>
+        <c:crossAx val="49280896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127183872"/>
+        <c:axId val="49280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127182336"/>
+        <c:crossAx val="49279360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -789,8 +891,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -896,9 +1001,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -936,7 +1041,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -970,6 +1075,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1004,9 +1110,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1179,14 +1286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1199,7 +1306,7 @@
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1382,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>59913</v>
       </c>
@@ -1343,7 +1450,7 @@
         <v>8630</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>43959</v>
       </c>
@@ -1411,7 +1518,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>59365</v>
       </c>
@@ -1479,7 +1586,7 @@
         <v>9539</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>54145</v>
       </c>
@@ -1547,7 +1654,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>53759</v>
       </c>
@@ -1615,7 +1722,7 @@
         <v>8424</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
         <v>54228.2</v>
@@ -1687,7 +1794,7 @@
         <v>9487</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>AVERAGE(D2:D7)</f>
         <v>46309.5</v>
@@ -1749,7 +1856,7 @@
         <v>9558</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>AVERAGE(F2:F8)</f>
         <v>46237.857142857145</v>
@@ -1767,39 +1874,39 @@
         <v>1104</v>
       </c>
       <c r="P9">
-        <f>AVERAGE(P2:P8)</f>
+        <f t="shared" ref="P9:W9" si="0">AVERAGE(P2:P8)</f>
         <v>78256.142857142855</v>
       </c>
       <c r="Q9">
-        <f>AVERAGE(Q2:Q8)</f>
+        <f t="shared" si="0"/>
         <v>1435.1428571428571</v>
       </c>
       <c r="R9">
-        <f>AVERAGE(R2:R8)</f>
+        <f t="shared" si="0"/>
         <v>102398.28571428571</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(S2:S8)</f>
+        <f t="shared" si="0"/>
         <v>1913.7142857142858</v>
       </c>
       <c r="T9">
-        <f>AVERAGE(T2:T8)</f>
+        <f t="shared" si="0"/>
         <v>148374.14285714287</v>
       </c>
       <c r="U9">
-        <f>AVERAGE(U2:U8)</f>
+        <f t="shared" si="0"/>
         <v>3340.4285714285716</v>
       </c>
       <c r="V9">
-        <f>AVERAGE(V2:V8)</f>
+        <f t="shared" si="0"/>
         <v>260843</v>
       </c>
       <c r="W9">
-        <f>AVERAGE(W2:W8)</f>
+        <f t="shared" si="0"/>
         <v>9059.4285714285706</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1860,39 +1967,39 @@
         <v>5.7975000000000003</v>
       </c>
       <c r="P11">
-        <f>P9/200</f>
+        <f t="shared" ref="P11:W11" si="1">P9/200</f>
         <v>391.28071428571428</v>
       </c>
       <c r="Q11">
-        <f>Q9/200</f>
+        <f t="shared" si="1"/>
         <v>7.1757142857142853</v>
       </c>
       <c r="R11">
-        <f>R9/200</f>
+        <f t="shared" si="1"/>
         <v>511.99142857142857</v>
       </c>
       <c r="S11">
-        <f>S9/200</f>
+        <f t="shared" si="1"/>
         <v>9.5685714285714294</v>
       </c>
       <c r="T11">
-        <f>T9/200</f>
+        <f t="shared" si="1"/>
         <v>741.87071428571437</v>
       </c>
       <c r="U11">
-        <f>U9/200</f>
+        <f t="shared" si="1"/>
         <v>16.702142857142857</v>
       </c>
       <c r="V11">
-        <f>V9/200</f>
+        <f t="shared" si="1"/>
         <v>1304.2149999999999</v>
       </c>
       <c r="W11">
-        <f>W9/200</f>
+        <f t="shared" si="1"/>
         <v>45.297142857142852</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +2070,7 @@
         <v>8925</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>59430</v>
       </c>
@@ -2031,7 +2138,7 @@
         <v>8551</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>55140</v>
       </c>
@@ -2099,7 +2206,7 @@
         <v>9472</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>49252</v>
       </c>
@@ -2155,7 +2262,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>53878</v>
       </c>
@@ -2199,7 +2306,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>138815</v>
       </c>
@@ -2207,7 +2314,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>AVERAGE(B14:B16)</f>
         <v>58137.666666666664</v>
@@ -2273,124 +2380,124 @@
         <v>2278.3333333333335</v>
       </c>
       <c r="R21">
-        <f>AVERAGE(R14:R18)</f>
+        <f t="shared" ref="R21:W21" si="2">AVERAGE(R14:R18)</f>
         <v>167638.6</v>
       </c>
       <c r="S21">
-        <f>AVERAGE(S14:S18)</f>
+        <f t="shared" si="2"/>
         <v>2267</v>
       </c>
       <c r="T21">
-        <f>AVERAGE(T14:T18)</f>
+        <f t="shared" si="2"/>
         <v>214159.2</v>
       </c>
       <c r="U21">
-        <f>AVERAGE(U14:U18)</f>
+        <f t="shared" si="2"/>
         <v>3395.8</v>
       </c>
       <c r="V21">
-        <f>AVERAGE(V14:V18)</f>
+        <f t="shared" si="2"/>
         <v>289126.40000000002</v>
       </c>
       <c r="W21">
-        <f>AVERAGE(W14:W18)</f>
+        <f t="shared" si="2"/>
         <v>8764.2000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <f>B21/200</f>
+        <f t="shared" ref="B23:W23" si="3">B21/200</f>
         <v>290.68833333333333</v>
       </c>
       <c r="C23">
-        <f>C21/200</f>
+        <f t="shared" si="3"/>
         <v>18.903333333333332</v>
       </c>
       <c r="D23">
-        <f>D21/200</f>
+        <f t="shared" si="3"/>
         <v>262.00099999999998</v>
       </c>
       <c r="E23">
-        <f>E21/200</f>
+        <f t="shared" si="3"/>
         <v>9.3129999999999988</v>
       </c>
       <c r="F23">
-        <f>F21/200</f>
+        <f t="shared" si="3"/>
         <v>306.41874999999999</v>
       </c>
       <c r="G23">
-        <f>G21/200</f>
+        <f t="shared" si="3"/>
         <v>6.7362500000000001</v>
       </c>
       <c r="H23">
-        <f>H21/200</f>
+        <f t="shared" si="3"/>
         <v>341.29874999999998</v>
       </c>
       <c r="I23">
-        <f>I21/200</f>
+        <f t="shared" si="3"/>
         <v>6.17</v>
       </c>
       <c r="J23">
-        <f>J21/200</f>
+        <f t="shared" si="3"/>
         <v>418.75900000000001</v>
       </c>
       <c r="K23">
-        <f>K21/200</f>
+        <f t="shared" si="3"/>
         <v>6.8270000000000008</v>
       </c>
       <c r="L23">
-        <f>L21/200</f>
+        <f t="shared" si="3"/>
         <v>450.61666666666662</v>
       </c>
       <c r="M23">
-        <f>M21/200</f>
+        <f t="shared" si="3"/>
         <v>6.5766666666666662</v>
       </c>
       <c r="N23">
-        <f>N21/200</f>
+        <f t="shared" si="3"/>
         <v>555.45699999999999</v>
       </c>
       <c r="O23">
-        <f>O21/200</f>
+        <f t="shared" si="3"/>
         <v>8.31</v>
       </c>
       <c r="P23">
-        <f>P21/200</f>
+        <f t="shared" si="3"/>
         <v>744.02250000000004</v>
       </c>
       <c r="Q23">
-        <f>Q21/200</f>
+        <f t="shared" si="3"/>
         <v>11.391666666666667</v>
       </c>
       <c r="R23">
-        <f>R21/200</f>
+        <f t="shared" si="3"/>
         <v>838.19299999999998</v>
       </c>
       <c r="S23">
-        <f>S21/200</f>
+        <f t="shared" si="3"/>
         <v>11.335000000000001</v>
       </c>
       <c r="T23">
-        <f>T21/200</f>
+        <f t="shared" si="3"/>
         <v>1070.796</v>
       </c>
       <c r="U23">
-        <f>U21/200</f>
+        <f t="shared" si="3"/>
         <v>16.978999999999999</v>
       </c>
       <c r="V23">
-        <f>V21/200</f>
+        <f t="shared" si="3"/>
         <v>1445.6320000000001</v>
       </c>
       <c r="W23">
-        <f>W21/200</f>
+        <f t="shared" si="3"/>
         <v>43.821000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2461,7 +2568,7 @@
         <v>8931</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>56268</v>
       </c>
@@ -2529,7 +2636,7 @@
         <v>9140</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>55233</v>
       </c>
@@ -2591,7 +2698,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>54221</v>
       </c>
@@ -2653,7 +2760,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>51551</v>
       </c>
@@ -2697,7 +2804,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>79735</v>
       </c>
@@ -2705,7 +2812,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34">
         <f>AVERAGE(B27:B31)</f>
         <v>54822.2</v>
@@ -2795,96 +2902,96 @@
         <v>9035.5</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
-        <f>B34/200</f>
+        <f t="shared" ref="B36:W36" si="4">B34/200</f>
         <v>274.11099999999999</v>
       </c>
       <c r="C36">
-        <f>C34/200</f>
+        <f t="shared" si="4"/>
         <v>12.628</v>
       </c>
       <c r="D36">
-        <f>D34/200</f>
+        <f t="shared" si="4"/>
         <v>382.66500000000002</v>
       </c>
       <c r="E36">
-        <f>E34/200</f>
+        <f t="shared" si="4"/>
         <v>7.9910000000000005</v>
       </c>
       <c r="F36">
-        <f>F34/200</f>
+        <f t="shared" si="4"/>
         <v>405.38083333333338</v>
       </c>
       <c r="G36">
-        <f>G34/200</f>
+        <f t="shared" si="4"/>
         <v>6.0650000000000004</v>
       </c>
       <c r="H36">
-        <f>H34/200</f>
+        <f t="shared" si="4"/>
         <v>586.73</v>
       </c>
       <c r="I36">
-        <f>I34/200</f>
+        <f t="shared" si="4"/>
         <v>7.3289999999999997</v>
       </c>
       <c r="J36">
-        <f>J34/200</f>
+        <f t="shared" si="4"/>
         <v>611.48800000000006</v>
       </c>
       <c r="K36">
-        <f>K34/200</f>
+        <f t="shared" si="4"/>
         <v>6.6840000000000002</v>
       </c>
       <c r="L36">
-        <f>L34/200</f>
+        <f t="shared" si="4"/>
         <v>689.755</v>
       </c>
       <c r="M36">
-        <f>M34/200</f>
+        <f t="shared" si="4"/>
         <v>7.2050000000000001</v>
       </c>
       <c r="N36">
-        <f>N34/200</f>
+        <f t="shared" si="4"/>
         <v>891.553</v>
       </c>
       <c r="O36">
-        <f>O34/200</f>
+        <f t="shared" si="4"/>
         <v>10.749000000000001</v>
       </c>
       <c r="P36">
-        <f>P34/200</f>
+        <f t="shared" si="4"/>
         <v>1027.4324999999999</v>
       </c>
       <c r="Q36">
-        <f>Q34/200</f>
+        <f t="shared" si="4"/>
         <v>10.37875</v>
       </c>
       <c r="R36">
-        <f>R34/200</f>
+        <f t="shared" si="4"/>
         <v>1218.6079999999999</v>
       </c>
       <c r="S36">
-        <f>S34/200</f>
+        <f t="shared" si="4"/>
         <v>15.267999999999999</v>
       </c>
       <c r="T36">
-        <f>T34/200</f>
+        <f t="shared" si="4"/>
         <v>1563.9449999999999</v>
       </c>
       <c r="U36">
-        <f>U34/200</f>
+        <f t="shared" si="4"/>
         <v>24.535</v>
       </c>
       <c r="V36">
-        <f>V34/200</f>
+        <f t="shared" si="4"/>
         <v>1628.8525</v>
       </c>
       <c r="W36">
-        <f>W34/200</f>
+        <f t="shared" si="4"/>
         <v>45.177500000000002</v>
       </c>
     </row>
@@ -2896,24 +3003,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
